--- a/static/download/2024/RP3_APT_TxOut_2024_Jan_Dec.xlsx
+++ b/static/download/2024/RP3_APT_TxOut_2024_Jan_Dec.xlsx
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>45714.0</v>
+        <v>45758.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -812,11 +812,10 @@
         <v>95435.0</v>
       </c>
       <c r="E6" s="26">
-        <f t="shared" ref="E6:E17" si="1">F6/D6</f>
-        <v>2.076308482</v>
+        <v>2.08</v>
       </c>
       <c r="F6" s="25">
-        <v>198152.5</v>
+        <v>198153.0</v>
       </c>
       <c r="G6" s="27">
         <v>9.33</v>
@@ -836,11 +835,10 @@
         <v>89292.0</v>
       </c>
       <c r="E7" s="26">
-        <f t="shared" si="1"/>
-        <v>1.738403963</v>
+        <v>1.74</v>
       </c>
       <c r="F7" s="25">
-        <v>155225.5667</v>
+        <v>155226.0</v>
       </c>
       <c r="G7" s="27">
         <v>9.01</v>
@@ -860,11 +858,10 @@
         <v>213489.0</v>
       </c>
       <c r="E8" s="26">
-        <f t="shared" si="1"/>
-        <v>3.237515009</v>
+        <v>3.24</v>
       </c>
       <c r="F8" s="25">
-        <v>691173.8417</v>
+        <v>691174.0</v>
       </c>
       <c r="G8" s="27">
         <v>11.13</v>
@@ -884,11 +881,10 @@
         <v>60364.0</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" si="1"/>
-        <v>1.345761823</v>
+        <v>1.35</v>
       </c>
       <c r="F9" s="25">
-        <v>81235.56667</v>
+        <v>81236.0</v>
       </c>
       <c r="G9" s="29">
         <v>7.85</v>
@@ -908,11 +904,10 @@
         <v>55719.0</v>
       </c>
       <c r="E10" s="26">
-        <f t="shared" si="1"/>
-        <v>1.194573963</v>
+        <v>1.19</v>
       </c>
       <c r="F10" s="25">
-        <v>66560.46667</v>
+        <v>66560.0</v>
       </c>
       <c r="G10" s="27">
         <v>11.5</v>
@@ -932,11 +927,10 @@
         <v>76153.0</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" si="1"/>
-        <v>1.894007568</v>
+        <v>1.89</v>
       </c>
       <c r="F11" s="25">
-        <v>144234.3583</v>
+        <v>144234.0</v>
       </c>
       <c r="G11" s="27">
         <v>9.88</v>
@@ -956,8 +950,7 @@
         <v>158963.0</v>
       </c>
       <c r="E12" s="26">
-        <f t="shared" si="1"/>
-        <v>2.897718337</v>
+        <v>2.9</v>
       </c>
       <c r="F12" s="25">
         <v>460630.0</v>
@@ -980,11 +973,10 @@
         <v>44528.0</v>
       </c>
       <c r="E13" s="26">
-        <f t="shared" si="1"/>
-        <v>1.571969323</v>
+        <v>1.57</v>
       </c>
       <c r="F13" s="25">
-        <v>69996.65</v>
+        <v>69997.0</v>
       </c>
       <c r="G13" s="27">
         <v>9.37</v>
@@ -1004,11 +996,10 @@
         <v>75682.0</v>
       </c>
       <c r="E14" s="26">
-        <f t="shared" si="1"/>
-        <v>2.898202787</v>
+        <v>2.9</v>
       </c>
       <c r="F14" s="25">
-        <v>219341.7833</v>
+        <v>219342.0</v>
       </c>
       <c r="G14" s="27">
         <v>7.01</v>
@@ -1028,11 +1019,10 @@
         <v>238924.0</v>
       </c>
       <c r="E15" s="26">
-        <f t="shared" si="1"/>
-        <v>3.562686112</v>
+        <v>3.56</v>
       </c>
       <c r="F15" s="25">
-        <v>851211.2167</v>
+        <v>851211.0</v>
       </c>
       <c r="G15" s="27">
         <v>9.31</v>
@@ -1052,11 +1042,10 @@
         <v>119566.0</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" si="1"/>
-        <v>3.650852807</v>
+        <v>3.65</v>
       </c>
       <c r="F16" s="25">
-        <v>436517.8667</v>
+        <v>436518.0</v>
       </c>
       <c r="G16" s="29">
         <v>10.53</v>
@@ -1076,11 +1065,10 @@
         <v>114027.0</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="1"/>
-        <v>2.528815178</v>
+        <v>2.53</v>
       </c>
       <c r="F17" s="25">
-        <v>288353.2083</v>
+        <v>288353.0</v>
       </c>
       <c r="G17" s="29">
         <v>9.94</v>
@@ -1115,8 +1103,7 @@
         <v>102471.0</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" ref="E19:E29" si="2">F19/D19</f>
-        <v>3.435654966</v>
+        <v>3.44</v>
       </c>
       <c r="F19" s="25">
         <v>352055.0</v>
@@ -1139,11 +1126,10 @@
         <v>90577.0</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" si="2"/>
-        <v>2.778050628</v>
+        <v>2.78</v>
       </c>
       <c r="F20" s="25">
-        <v>251627.4917</v>
+        <v>251627.0</v>
       </c>
       <c r="G20" s="27">
         <v>8.36</v>
@@ -1163,11 +1149,10 @@
         <v>91993.0</v>
       </c>
       <c r="E21" s="26">
-        <f t="shared" si="2"/>
-        <v>1.806697249</v>
+        <v>1.81</v>
       </c>
       <c r="F21" s="25">
-        <v>166203.5</v>
+        <v>166204.0</v>
       </c>
       <c r="G21" s="27">
         <v>8.99</v>
@@ -1187,11 +1172,10 @@
         <v>67359.0</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="2"/>
-        <v>2.317288459</v>
+        <v>2.32</v>
       </c>
       <c r="F22" s="25">
-        <v>156090.2333</v>
+        <v>156090.0</v>
       </c>
       <c r="G22" s="27">
         <v>8.03</v>
@@ -1211,11 +1195,10 @@
         <v>57513.0</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="2"/>
-        <v>1.665450565</v>
+        <v>1.67</v>
       </c>
       <c r="F23" s="25">
-        <v>95785.05833</v>
+        <v>95785.0</v>
       </c>
       <c r="G23" s="29">
         <v>9.3</v>
@@ -1235,11 +1218,10 @@
         <v>171131.0</v>
       </c>
       <c r="E24" s="26">
-        <f t="shared" si="2"/>
-        <v>3.18013666</v>
+        <v>3.18</v>
       </c>
       <c r="F24" s="25">
-        <v>544219.9667</v>
+        <v>544220.0</v>
       </c>
       <c r="G24" s="27">
         <v>12.47</v>
@@ -1259,11 +1241,10 @@
         <v>198109.0</v>
       </c>
       <c r="E25" s="26">
-        <f t="shared" si="2"/>
-        <v>3.297599091</v>
+        <v>3.3</v>
       </c>
       <c r="F25" s="25">
-        <v>653284.0583</v>
+        <v>653284.0</v>
       </c>
       <c r="G25" s="27">
         <v>13.4</v>
@@ -1283,11 +1264,10 @@
         <v>82703.0</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" si="2"/>
-        <v>2.261529409</v>
+        <v>2.26</v>
       </c>
       <c r="F26" s="25">
-        <v>187035.2667</v>
+        <v>187035.0</v>
       </c>
       <c r="G26" s="27">
         <v>9.64</v>
@@ -1307,11 +1287,10 @@
         <v>119691.0</v>
       </c>
       <c r="E27" s="26">
-        <f t="shared" si="2"/>
-        <v>2.476357454</v>
+        <v>2.48</v>
       </c>
       <c r="F27" s="25">
-        <v>296397.7</v>
+        <v>296398.0</v>
       </c>
       <c r="G27" s="27">
         <v>10.4</v>
@@ -1331,11 +1310,10 @@
         <v>32906.0</v>
       </c>
       <c r="E28" s="26">
-        <f t="shared" si="2"/>
-        <v>0.8445116392</v>
+        <v>0.84</v>
       </c>
       <c r="F28" s="25">
-        <v>27789.5</v>
+        <v>27790.0</v>
       </c>
       <c r="G28" s="27">
         <v>9.17</v>
@@ -1355,8 +1333,7 @@
         <v>44599.0</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" si="2"/>
-        <v>0.9626673244</v>
+        <v>0.96</v>
       </c>
       <c r="F29" s="25">
         <v>42934.0</v>
@@ -1394,11 +1371,10 @@
         <v>74150.0</v>
       </c>
       <c r="E31" s="26">
-        <f t="shared" ref="E31:E47" si="3">F31/D31</f>
-        <v>2.084403237</v>
+        <v>2.08</v>
       </c>
       <c r="F31" s="25">
-        <v>154558.5</v>
+        <v>154559.0</v>
       </c>
       <c r="G31" s="27">
         <v>8.52</v>
@@ -1418,11 +1394,10 @@
         <v>216304.0</v>
       </c>
       <c r="E32" s="26">
-        <f t="shared" si="3"/>
-        <v>3.746508464</v>
+        <v>3.75</v>
       </c>
       <c r="F32" s="25">
-        <v>810384.7667</v>
+        <v>810385.0</v>
       </c>
       <c r="G32" s="27">
         <v>11.64</v>
@@ -1442,8 +1417,7 @@
         <v>102741.0</v>
       </c>
       <c r="E33" s="26">
-        <f t="shared" si="3"/>
-        <v>1.909150193</v>
+        <v>1.91</v>
       </c>
       <c r="F33" s="25">
         <v>196148.0</v>
@@ -1466,11 +1440,10 @@
         <v>130463.0</v>
       </c>
       <c r="E34" s="26">
-        <f t="shared" si="3"/>
-        <v>2.946525068</v>
+        <v>2.95</v>
       </c>
       <c r="F34" s="25">
-        <v>384412.5</v>
+        <v>384413.0</v>
       </c>
       <c r="G34" s="27">
         <v>9.02</v>
@@ -1490,11 +1463,10 @@
         <v>61723.0</v>
       </c>
       <c r="E35" s="26">
-        <f t="shared" si="3"/>
-        <v>1.311641933</v>
+        <v>1.31</v>
       </c>
       <c r="F35" s="25">
-        <v>80958.475</v>
+        <v>80958.0</v>
       </c>
       <c r="G35" s="29">
         <v>9.67</v>
@@ -1514,11 +1486,10 @@
         <v>101952.0</v>
       </c>
       <c r="E36" s="26">
-        <f t="shared" si="3"/>
-        <v>3.543350138</v>
+        <v>3.54</v>
       </c>
       <c r="F36" s="25">
-        <v>361251.6333</v>
+        <v>361252.0</v>
       </c>
       <c r="G36" s="27">
         <v>12.23</v>
@@ -1538,8 +1509,7 @@
         <v>54784.0</v>
       </c>
       <c r="E37" s="26">
-        <f t="shared" si="3"/>
-        <v>2.090665158</v>
+        <v>2.09</v>
       </c>
       <c r="F37" s="25">
         <v>114535.0</v>
@@ -1562,11 +1532,10 @@
         <v>57828.0</v>
       </c>
       <c r="E38" s="26">
-        <f t="shared" si="3"/>
-        <v>3.708650654</v>
+        <v>3.71</v>
       </c>
       <c r="F38" s="25">
-        <v>214463.85</v>
+        <v>214464.0</v>
       </c>
       <c r="G38" s="27">
         <v>10.26</v>
@@ -1586,8 +1555,7 @@
         <v>43484.0</v>
       </c>
       <c r="E39" s="26">
-        <f t="shared" si="3"/>
-        <v>1.671304388</v>
+        <v>1.67</v>
       </c>
       <c r="F39" s="25">
         <v>72675.0</v>
@@ -1610,8 +1578,7 @@
         <v>148910.0</v>
       </c>
       <c r="E40" s="26">
-        <f t="shared" si="3"/>
-        <v>7.275938486</v>
+        <v>7.28</v>
       </c>
       <c r="F40" s="25">
         <v>1083460.0</v>
@@ -1634,8 +1601,7 @@
         <v>64702.0</v>
       </c>
       <c r="E41" s="26">
-        <f t="shared" si="3"/>
-        <v>2.17308584</v>
+        <v>2.17</v>
       </c>
       <c r="F41" s="25">
         <v>140603.0</v>
@@ -1658,11 +1624,10 @@
         <v>121943.0</v>
       </c>
       <c r="E42" s="26">
-        <f t="shared" si="3"/>
-        <v>2.698978211</v>
+        <v>2.7</v>
       </c>
       <c r="F42" s="25">
-        <v>329121.5</v>
+        <v>329122.0</v>
       </c>
       <c r="G42" s="27">
         <v>7.24</v>
@@ -1682,11 +1647,10 @@
         <v>53446.0</v>
       </c>
       <c r="E43" s="26">
-        <f t="shared" si="3"/>
-        <v>1.860990065</v>
+        <v>1.86</v>
       </c>
       <c r="F43" s="25">
-        <v>99462.475</v>
+        <v>99462.0</v>
       </c>
       <c r="G43" s="27">
         <v>8.42</v>
@@ -1706,11 +1670,10 @@
         <v>109024.0</v>
       </c>
       <c r="E44" s="26">
-        <f t="shared" si="3"/>
-        <v>4.315129467</v>
+        <v>4.32</v>
       </c>
       <c r="F44" s="25">
-        <v>470452.675</v>
+        <v>470453.0</v>
       </c>
       <c r="G44" s="27">
         <v>9.93</v>
@@ -1730,11 +1693,10 @@
         <v>54387.0</v>
       </c>
       <c r="E45" s="26">
-        <f t="shared" si="3"/>
-        <v>2.238981742</v>
+        <v>2.24</v>
       </c>
       <c r="F45" s="25">
-        <v>121771.5</v>
+        <v>121772.0</v>
       </c>
       <c r="G45" s="27">
         <v>7.12</v>
@@ -1754,11 +1716,10 @@
         <v>87717.0</v>
       </c>
       <c r="E46" s="26">
-        <f t="shared" si="3"/>
-        <v>2.680099448</v>
+        <v>2.68</v>
       </c>
       <c r="F46" s="25">
-        <v>235090.2833</v>
+        <v>235090.0</v>
       </c>
       <c r="G46" s="29">
         <v>8.09</v>
@@ -1778,11 +1739,10 @@
         <v>127538.0</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" si="3"/>
-        <v>3.03617203</v>
+        <v>3.04</v>
       </c>
       <c r="F47" s="25">
-        <v>387227.3083</v>
+        <v>387227.0</v>
       </c>
       <c r="G47" s="29">
         <v>9.25</v>
